--- a/data/template_cheers.xlsx
+++ b/data/template_cheers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/checklist/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE3E0E07-E545-4A95-BFCE-EC29FA789DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{EE3E0E07-E545-4A95-BFCE-EC29FA789DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA27A75-43F3-40C9-B682-A9D4486731C6}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC92BA6D-45C4-43E3-B89C-BB1DA6980679}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC92BA6D-45C4-43E3-B89C-BB1DA6980679}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
@@ -37,17 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>section</t>
   </si>
   <si>
-    <t>item_number</t>
-  </si>
-  <si>
-    <t>item_text</t>
-  </si>
-  <si>
     <t>item_full_text</t>
   </si>
   <si>
@@ -111,175 +105,184 @@
     <t>Introduction</t>
   </si>
   <si>
-    <t>Background and objectives</t>
-  </si>
-  <si>
     <t>Give the context for the study, the study question and its practical relevance for decision making in policy or practice.</t>
   </si>
   <si>
     <t>Methods</t>
   </si>
   <si>
-    <t>Health economic analysis plan</t>
-  </si>
-  <si>
     <t>Indicate whether a health economic analysis plan was developed and where available.</t>
   </si>
   <si>
-    <t>Study population</t>
-  </si>
-  <si>
     <t>Describe characteristics of the study population (such as age range, demographics, socioeconomic, or clinical characteristics).</t>
   </si>
   <si>
-    <t>Setting and location</t>
-  </si>
-  <si>
     <t>Provide relevant contextual information that may influence findings.</t>
   </si>
   <si>
-    <t>Comparators</t>
-  </si>
-  <si>
     <t>Describe the interventions or strategies being compared and why chosen.</t>
   </si>
   <si>
-    <t>Perspective</t>
-  </si>
-  <si>
     <t>State the perspective(s) adopted by the study and why chosen.</t>
   </si>
   <si>
-    <t>Time horizon</t>
-  </si>
-  <si>
     <t>State the time horizon for the study and why appropriate.</t>
   </si>
   <si>
-    <t>Discount rate</t>
-  </si>
-  <si>
     <t>Report the discount rate(s) and reason chosen.</t>
   </si>
   <si>
-    <t>Selection of outcomes</t>
-  </si>
-  <si>
     <t>Describe what outcomes were used as the measure(s) of benefit(s) and harm(s).</t>
   </si>
   <si>
-    <t>Measurement of outcomes</t>
-  </si>
-  <si>
     <t>Describe how outcomes used to capture benefit(s) and harm(s) were measured.</t>
   </si>
   <si>
-    <t>Valuation of outcomes</t>
-  </si>
-  <si>
     <t>Describe the population and methods used to measure and value outcomes.</t>
   </si>
   <si>
-    <t>Measurement and valuation of resources and costs</t>
-  </si>
-  <si>
     <t>Describe how costs were valued.</t>
   </si>
   <si>
-    <t>Currency, price date, and conversion</t>
-  </si>
-  <si>
     <t>Report the dates of the estimated resource quantities and unit costs, plus the currency and year of conversion.</t>
   </si>
   <si>
-    <t>Rationale and description of model</t>
-  </si>
-  <si>
     <t>If modelling is used, describe in detail and why used. Report if the model is publicly available and where it can be accessed.</t>
   </si>
   <si>
-    <t>Analytics and assumptions</t>
-  </si>
-  <si>
     <t>Describe any methods for analysing or statistically transforming data, any extrapolation methods, and approaches for validating any model used.</t>
   </si>
   <si>
-    <t>Characterizing heterogeneity</t>
-  </si>
-  <si>
     <t>Describe any methods used for estimating how the results of the study vary for sub-groups.</t>
   </si>
   <si>
-    <t>Characterizing distributional effects</t>
-  </si>
-  <si>
     <t>Describe how impacts are distributed across different individuals or adjustments made to reflect priority populations.</t>
   </si>
   <si>
-    <t>Characterizing uncertainty</t>
-  </si>
-  <si>
     <t>Describe methods to characterize any sources of uncertainty in the analysis.</t>
   </si>
   <si>
-    <t>Approach to engagement with patients and others affected by the study</t>
-  </si>
-  <si>
     <t>Describe any approaches to engage patients or service recipients, the general public, communities, or stakeholders (e.g., clinicians or payers) in the design of the study.</t>
   </si>
   <si>
     <t>Results</t>
   </si>
   <si>
-    <t>Study parameters</t>
-  </si>
-  <si>
     <t>Report all analytic inputs (e.g., values, ranges, references) including uncertainty or distributional assumptions.</t>
   </si>
   <si>
-    <t>Summary of main results</t>
-  </si>
-  <si>
     <t>Report the mean values for the main categories of costs and outcomes of interest and summarise them in the most appropriate overall measure.</t>
   </si>
   <si>
-    <t>Effect of uncertainty</t>
-  </si>
-  <si>
     <t>Describe how uncertainty about analytic judgments, inputs, or projections affect findings. Report the effect of choice of discount rate and time horizon, if applicable.</t>
   </si>
   <si>
-    <t>Effect of engagement with patients and others affected by the study</t>
-  </si>
-  <si>
     <t>Report on any difference patient/service recipient, general public, community, or stakeholder involvement made to the approach or findings of the study</t>
   </si>
   <si>
     <t>Discussion</t>
   </si>
   <si>
-    <t>Study findings, limitations, generalizability, and current knowledge</t>
-  </si>
-  <si>
     <t>Report key findings, limitations, ethical or equity considerations not captured, and how these could impact patients, policy, or practice</t>
   </si>
   <si>
     <t>Other relevant information</t>
   </si>
   <si>
-    <t>Source of funding</t>
-  </si>
-  <si>
     <t>Describe how the study was funded and any role of the funder in the identification, design, conduct, and reporting of the analysis</t>
   </si>
   <si>
-    <t>Conflicts of interest</t>
-  </si>
-  <si>
     <t>Report authors conflicts of interest according to journal or International Committee of Medical Journal Editors requirements.</t>
   </si>
   <si>
     <t>To do</t>
+  </si>
+  <si>
+    <t>1. Title</t>
+  </si>
+  <si>
+    <t>2. Abstract</t>
+  </si>
+  <si>
+    <t>3. Background and objectives</t>
+  </si>
+  <si>
+    <t>4. Health economic analysis plan</t>
+  </si>
+  <si>
+    <t>5. Study population</t>
+  </si>
+  <si>
+    <t>6. Setting and location</t>
+  </si>
+  <si>
+    <t>7. Comparators</t>
+  </si>
+  <si>
+    <t>8. Perspective</t>
+  </si>
+  <si>
+    <t>9. Time horizon</t>
+  </si>
+  <si>
+    <t>10. Discount rate</t>
+  </si>
+  <si>
+    <t>11. Selection of outcomes</t>
+  </si>
+  <si>
+    <t>12. Measurement of outcomes</t>
+  </si>
+  <si>
+    <t>13. Valuation of outcomes</t>
+  </si>
+  <si>
+    <t>14. Measurement and valuation of resources and costs</t>
+  </si>
+  <si>
+    <t>15. Currency, price date, and conversion</t>
+  </si>
+  <si>
+    <t>16. Rationale and description of model</t>
+  </si>
+  <si>
+    <t>17. Analytics and assumptions</t>
+  </si>
+  <si>
+    <t>18. Characterizing heterogeneity</t>
+  </si>
+  <si>
+    <t>19. Characterizing distributional effects</t>
+  </si>
+  <si>
+    <t>20. Characterizing uncertainty</t>
+  </si>
+  <si>
+    <t>21. Approach to engagement with patients and others affected by the study</t>
+  </si>
+  <si>
+    <t>22. Study parameters</t>
+  </si>
+  <si>
+    <t>23. Summary of main results</t>
+  </si>
+  <si>
+    <t>24. Effect of uncertainty</t>
+  </si>
+  <si>
+    <t>25. Effect of engagement with patients and others affected by the study</t>
+  </si>
+  <si>
+    <t>26. Study findings, limitations, generalizability, and current knowledge</t>
+  </si>
+  <si>
+    <t>27. Source of funding</t>
+  </si>
+  <si>
+    <t>28. Conflicts of interest</t>
+  </si>
+  <si>
+    <t>checklist_item</t>
   </si>
 </sst>
 </file>
@@ -332,6 +335,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -631,466 +638,380 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01325734-8861-446C-B523-0FDE9DE4C346}">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:R29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="153.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="153.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>21</v>
       </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" t="s">
         <v>27</v>
       </c>
-      <c r="D5" t="s">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" t="s">
         <v>29</v>
       </c>
-      <c r="D6" t="s">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" t="s">
         <v>31</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
         <v>33</v>
       </c>
-      <c r="D8" t="s">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" t="s">
         <v>35</v>
       </c>
-      <c r="D9" t="s">
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" t="s">
         <v>37</v>
       </c>
-      <c r="D10" t="s">
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" t="s">
         <v>39</v>
       </c>
-      <c r="D11" t="s">
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>26</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="B23" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" t="s">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" t="s">
         <v>45</v>
       </c>
-      <c r="D14" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="D15" t="s">
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
         <v>49</v>
       </c>
-      <c r="D16" t="s">
+      <c r="B28" t="s">
+        <v>79</v>
+      </c>
+      <c r="C28" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" t="s">
         <v>51</v>
-      </c>
-      <c r="D17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>26</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" t="s">
-        <v>64</v>
-      </c>
-      <c r="D23" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>63</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
-      </c>
-      <c r="D25" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>75</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B29">
-        <v>28</v>
-      </c>
-      <c r="C29" t="s">
-        <v>78</v>
-      </c>
-      <c r="D29" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1102,7 +1023,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EEAAD-59E9-4155-AFBA-C6FF50E1EB4E}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
@@ -1113,7 +1034,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/template_cheers.xlsx
+++ b/data/template_cheers.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://connectqutedu-my.sharepoint.com/personal/whitenm_qut_edu_au/Documents/checklist/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{EE3E0E07-E545-4A95-BFCE-EC29FA789DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6DA27A75-43F3-40C9-B682-A9D4486731C6}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="8_{EE3E0E07-E545-4A95-BFCE-EC29FA789DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BAF62EED-2699-40BB-81BD-0EC1F8E01487}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC92BA6D-45C4-43E3-B89C-BB1DA6980679}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC92BA6D-45C4-43E3-B89C-BB1DA6980679}"/>
   </bookViews>
   <sheets>
     <sheet name="template" sheetId="1" r:id="rId1"/>
     <sheet name="readme" sheetId="2" r:id="rId2"/>
+    <sheet name="Full checklist" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,59 +38,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="86">
   <si>
     <t>section</t>
   </si>
   <si>
-    <t>item_full_text</t>
-  </si>
-  <si>
     <t>Study 1</t>
   </si>
   <si>
     <t>Study 2</t>
   </si>
   <si>
-    <t>Study 3</t>
-  </si>
-  <si>
-    <t>Study 4</t>
-  </si>
-  <si>
-    <t>Study 5</t>
-  </si>
-  <si>
-    <t>Study 6</t>
-  </si>
-  <si>
-    <t>Study 7</t>
-  </si>
-  <si>
-    <t>Study 8</t>
-  </si>
-  <si>
-    <t>Study 9</t>
-  </si>
-  <si>
-    <t>Study 10</t>
-  </si>
-  <si>
-    <t>Study 11</t>
-  </si>
-  <si>
-    <t>Study 12</t>
-  </si>
-  <si>
-    <t>Study 13</t>
-  </si>
-  <si>
-    <t>Study 14</t>
-  </si>
-  <si>
-    <t>Study 15</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -195,9 +154,6 @@
     <t>Report authors conflicts of interest according to journal or International Committee of Medical Journal Editors requirements.</t>
   </si>
   <si>
-    <t>To do</t>
-  </si>
-  <si>
     <t>1. Title</t>
   </si>
   <si>
@@ -283,14 +239,159 @@
   </si>
   <si>
     <t>checklist_item</t>
+  </si>
+  <si>
+    <t>Consolidated Health Economic Evaluation Reporting Standards (CHEERS) checklist</t>
+  </si>
+  <si>
+    <t>This template can be used to summarise study reporting against items included in the CHEERS 2022 checklist. The full list of checklist item descriptions can be found in the worksheet named 'Full checklist'</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: https://www.equator-network.org/reporting-guidelines/cheers/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accessed:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 31 January 2023</t>
+    </r>
+  </si>
+  <si>
+    <t>Guidance for Reporting</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>ABSTRACT</t>
+  </si>
+  <si>
+    <t>METHODS</t>
+  </si>
+  <si>
+    <t>INTRODUCTION</t>
+  </si>
+  <si>
+    <t>RESULTS</t>
+  </si>
+  <si>
+    <t>DISCUSSION</t>
+  </si>
+  <si>
+    <t>OTHER RELEVANT INFORMATION</t>
+  </si>
+  <si>
+    <t>Checklist item</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>section*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Section of the paper/report where the checklist item is recommended to be reported. This field is used in the application as part of the interactive data summaries</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checklist_item*:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Number and name of checklist item. This field is used in the application to create both figures and interactive data summaries. Users may delete one or more checklist item(s) if not being used to summarise studies; empty cells will be marked as 'Missing' in all application outputs</t>
+    </r>
+  </si>
+  <si>
+    <t>Instructions for template use</t>
+  </si>
+  <si>
+    <t>1. Data for each study is entered as a separate column. Study names can be changed as needed. For example, Smith et. al (2023) in place of Study 1. Assigned field names will be displayed in all application figures and data summaries.</t>
+  </si>
+  <si>
+    <t>2. The field names "section" and "checklist_list" must not be changed in the template. Field values in any column may be edited if required; download xxx from the 'Useful resources' tab of the application for an example.</t>
+  </si>
+  <si>
+    <t>Data on any number of studies may be entered, howerver, we recommend a maximum of xxx for presentation in a single figure. Larger numbers of studies may be incorporated by adapating the R code provided under the 'Code' menu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -318,8 +419,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -630,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -638,24 +746,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01325734-8861-446C-B523-0FDE9DE4C346}">
-  <dimension ref="A1:R29"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="66.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="153.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -663,355 +770,229 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" t="s">
         <v>53</v>
       </c>
-      <c r="C2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>55</v>
       </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" t="s">
         <v>56</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" t="s">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" t="s">
         <v>57</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
         <v>58</v>
       </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" t="s">
         <v>59</v>
       </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B25" t="s">
         <v>61</v>
       </c>
-      <c r="C10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" t="s">
         <v>62</v>
       </c>
-      <c r="C11" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" t="s">
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>35</v>
+      </c>
+      <c r="B28" t="s">
         <v>64</v>
       </c>
-      <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
         <v>65</v>
-      </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" t="s">
-        <v>76</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>42</v>
-      </c>
-      <c r="B26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B27" t="s">
-        <v>78</v>
-      </c>
-      <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>79</v>
-      </c>
-      <c r="C28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>49</v>
-      </c>
-      <c r="B29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C29" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1021,20 +1002,356 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF6EEAAD-59E9-4155-AFBA-C6FF50E1EB4E}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="157.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A36FD613-691D-4AA9-B8A3-6DE233EE052C}">
+  <dimension ref="A1:B40"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="153.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>52</v>
+      </c>
+      <c r="B20" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
+      <c r="B28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
